--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Error.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Error.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshoji/Desktop/MobiedockCSVs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAAD635-90EC-7F49-847F-33A042263A42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304DD12-3495-E340-844E-FACC83083FC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{DC9CEBA7-6D5C-DA47-8BA1-25F8E5138107}"/>
+    <workbookView xWindow="10060" yWindow="460" windowWidth="14280" windowHeight="15540" xr2:uid="{DC9CEBA7-6D5C-DA47-8BA1-25F8E5138107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>Error Name</t>
-  </si>
-  <si>
-    <t>Error ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -124,6 +115,15 @@
   </si>
   <si>
     <t>Needs maintenance immediatley</t>
+  </si>
+  <si>
+    <t>error_id</t>
+  </si>
+  <si>
+    <t>error_name</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,123 +498,123 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Error.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Error.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bendavis/Documents/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304DD12-3495-E340-844E-FACC83083FC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F78C521-12F4-9949-963E-7289A20B3670}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="460" windowWidth="14280" windowHeight="15540" xr2:uid="{DC9CEBA7-6D5C-DA47-8BA1-25F8E5138107}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>E1</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>Needs maintenance immediatley</t>
-  </si>
-  <si>
-    <t>error_id</t>
-  </si>
-  <si>
-    <t>error_name</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
 </sst>
 </file>
@@ -483,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6705354-A601-714B-BC18-A97E1CD207EB}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,122 +489,111 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
         <v>29</v>
       </c>
     </row>
